--- a/resources/experiment 2/metrics/MAPE/average time/Amputación extremidades inferiores.xlsx
+++ b/resources/experiment 2/metrics/MAPE/average time/Amputación extremidades inferiores.xlsx
@@ -465,7 +465,7 @@
         <v>0.06372986033977712</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06372986033977712</v>
+        <v>0.06372986033977714</v>
       </c>
       <c r="D2" t="n">
         <v>0.06372986033977712</v>
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.04512284629184155</v>
+        <v>0.01056612089100328</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04512284629184155</v>
+        <v>0.01052369735363642</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04512284629184155</v>
+        <v>0.03857734479393229</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.008963650701212356</v>
+        <v>0.01129396315450547</v>
       </c>
       <c r="C4" t="n">
-        <v>0.008963650701212356</v>
+        <v>0.01118824644422394</v>
       </c>
       <c r="D4" t="n">
-        <v>0.008963650701212356</v>
+        <v>0.06228362197594364</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09547687904934325</v>
+        <v>0.009658051440555945</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09547687904934325</v>
+        <v>0.009613073526152441</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09547687904934325</v>
+        <v>0.01256393900265687</v>
       </c>
     </row>
   </sheetData>
